--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D418ACD-C319-4CCA-ADAB-D80B117DAF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A562288-657F-4070-8F51-D14BAC55F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -482,7 +482,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,9 @@
       <c r="D1" s="1">
         <v>45688</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1">
+        <v>45690</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -558,6 +560,9 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -572,6 +577,9 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -586,6 +594,9 @@
       <c r="D4" t="s">
         <v>36</v>
       </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -600,6 +611,9 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -614,6 +628,9 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -628,6 +645,9 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -642,6 +662,9 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -656,6 +679,9 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -670,6 +696,9 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -684,6 +713,9 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -698,6 +730,9 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -712,6 +747,9 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -726,6 +764,9 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -740,6 +781,9 @@
       <c r="D15" t="s">
         <v>35</v>
       </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -754,8 +798,11 @@
       <c r="D16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -768,8 +815,11 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -782,8 +832,11 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -796,8 +849,11 @@
       <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -810,8 +866,11 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -824,8 +883,11 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -838,8 +900,11 @@
       <c r="D22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -852,8 +917,11 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -866,8 +934,11 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -880,8 +951,11 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -894,8 +968,11 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -908,8 +985,11 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -922,8 +1002,11 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -936,8 +1019,11 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -950,8 +1036,11 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -964,8 +1053,11 @@
       <c r="D31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -978,8 +1070,11 @@
       <c r="D32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -990,6 +1085,9 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A562288-657F-4070-8F51-D14BAC55F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9A24B-B2F4-43F5-8414-55FB45B5F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Pedro Henrique de Lima Batista</t>
   </si>
   <si>
-    <t>SEX</t>
-  </si>
-  <si>
     <t>SEG</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>SEXTA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,9 @@
       <c r="E1" s="1">
         <v>45690</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1">
+        <v>45695</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -555,13 +557,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
+      <c r="F2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -572,13 +577,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -589,13 +597,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -606,13 +617,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -623,12 +637,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -640,13 +657,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -657,13 +677,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -674,13 +697,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -691,13 +717,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -708,13 +737,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -725,13 +757,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,13 +777,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -759,13 +797,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
@@ -776,12 +817,15 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -793,16 +837,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -810,16 +857,19 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -827,16 +877,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -844,16 +897,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -861,16 +917,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -878,16 +937,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -895,16 +957,19 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -912,16 +977,19 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -929,16 +997,19 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -946,16 +1017,19 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -963,16 +1037,19 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -980,16 +1057,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -997,16 +1077,19 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1014,16 +1097,19 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1031,16 +1117,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1048,16 +1137,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1065,16 +1157,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1082,13 +1177,16 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9A24B-B2F4-43F5-8414-55FB45B5F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6B211-F32F-4AD4-836F-2F969CC4D121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -482,24 +482,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45684</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -629,7 +629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -649,7 +649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -669,7 +669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -689,7 +689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -709,7 +709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -729,7 +729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -769,7 +769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -809,7 +809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -829,7 +829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -849,7 +849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -869,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -889,7 +889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -909,7 +909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -969,7 +969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
+  <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
   <conditionalFormatting sqref="C3:CV33">
@@ -1216,159 +1216,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6B211-F32F-4AD4-836F-2F969CC4D121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047A2F1-6F6D-43DC-95D8-1716BA081F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>SEXTA</t>
+  </si>
+  <si>
+    <t>P/5</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +515,9 @@
       <c r="F1" s="1">
         <v>45695</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>45698</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -568,6 +573,9 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -588,6 +596,9 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -608,6 +619,9 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -628,6 +642,9 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -648,6 +665,9 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -668,6 +688,9 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -688,6 +711,9 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -708,6 +734,9 @@
       <c r="F9" t="s">
         <v>35</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -728,6 +757,9 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -748,6 +780,9 @@
       <c r="F11" t="s">
         <v>35</v>
       </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -768,6 +803,9 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -788,6 +826,9 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -808,6 +849,9 @@
       <c r="F14" t="s">
         <v>35</v>
       </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -828,6 +872,9 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -848,8 +895,11 @@
       <c r="F16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -868,8 +918,11 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -888,8 +941,11 @@
       <c r="F18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -908,8 +964,11 @@
       <c r="F19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -928,8 +987,11 @@
       <c r="F20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -948,8 +1010,11 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -968,8 +1033,11 @@
       <c r="F22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -988,8 +1056,11 @@
       <c r="F23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1008,8 +1079,11 @@
       <c r="F24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1102,11 @@
       <c r="F25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1125,11 @@
       <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1068,8 +1148,11 @@
       <c r="F27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1088,8 +1171,11 @@
       <c r="F28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1108,8 +1194,11 @@
       <c r="F29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1128,8 +1217,11 @@
       <c r="F30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1148,8 +1240,11 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1168,8 +1263,11 @@
       <c r="F32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1186,6 +1284,9 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
       </c>
     </row>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047A2F1-6F6D-43DC-95D8-1716BA081F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9123A5-7F9B-417C-B329-CBBBECB9BA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -482,27 +482,27 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45684</v>
       </c>
@@ -510,7 +510,7 @@
         <v>45688</v>
       </c>
       <c r="E1" s="1">
-        <v>45690</v>
+        <v>45691</v>
       </c>
       <c r="F1" s="1">
         <v>45695</v>
@@ -554,7 +554,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -623,7 +623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -646,7 +646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -669,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -692,7 +692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -715,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -738,7 +738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -761,7 +761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -807,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -830,7 +830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -853,7 +853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -876,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -922,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -945,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -968,7 +968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
   <conditionalFormatting sqref="C3:CV33">
@@ -1317,159 +1317,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9123A5-7F9B-417C-B329-CBBBECB9BA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EED138-D7F8-4973-9D6F-07B754DC2BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>P/5</t>
+  </si>
+  <si>
+    <t>SEX</t>
   </si>
 </sst>
 </file>
@@ -485,24 +488,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45684</v>
       </c>
@@ -518,7 +521,9 @@
       <c r="G1" s="1">
         <v>45698</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <v>14</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -554,7 +559,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,8 +581,11 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,8 +607,11 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -622,8 +633,11 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -645,8 +659,11 @@
       <c r="G5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -668,8 +685,11 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -691,8 +711,11 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -714,8 +737,11 @@
       <c r="G8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -737,8 +763,11 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -760,8 +789,11 @@
       <c r="G10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -783,8 +815,11 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -806,8 +841,11 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -829,8 +867,11 @@
       <c r="G13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -852,8 +893,11 @@
       <c r="G14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -875,8 +919,11 @@
       <c r="G15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -898,8 +945,11 @@
       <c r="G16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -921,8 +971,11 @@
       <c r="G17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -944,8 +997,11 @@
       <c r="G18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -967,8 +1023,11 @@
       <c r="G19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -990,8 +1049,11 @@
       <c r="G20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1075,11 @@
       <c r="G21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1036,8 +1101,11 @@
       <c r="G22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1127,11 @@
       <c r="G23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1082,8 +1153,11 @@
       <c r="G24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1105,8 +1179,11 @@
       <c r="G25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1205,11 @@
       <c r="G26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1151,8 +1231,11 @@
       <c r="G27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1174,8 +1257,11 @@
       <c r="G28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1197,8 +1283,11 @@
       <c r="G29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1220,8 +1309,11 @@
       <c r="G30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1243,8 +1335,11 @@
       <c r="G31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1266,8 +1361,11 @@
       <c r="G32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1289,9 +1387,12 @@
       <c r="G33" t="s">
         <v>35</v>
       </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
+  <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
   <conditionalFormatting sqref="C3:CV33">
@@ -1317,159 +1418,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EED138-D7F8-4973-9D6F-07B754DC2BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E4130B-DD0C-426E-BF7D-BAAD812E0713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -485,10 +485,10 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,9 +522,11 @@
         <v>45698</v>
       </c>
       <c r="H1" s="1">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>45702</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45705</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -584,6 +586,9 @@
       <c r="H2" t="s">
         <v>38</v>
       </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -610,6 +615,9 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -636,6 +644,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -662,6 +673,9 @@
       <c r="H5" t="s">
         <v>35</v>
       </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -688,6 +702,9 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -714,6 +731,9 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -740,6 +760,9 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -766,6 +789,9 @@
       <c r="H9" t="s">
         <v>35</v>
       </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -792,6 +818,9 @@
       <c r="H10" t="s">
         <v>35</v>
       </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -818,6 +847,9 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -844,6 +876,9 @@
       <c r="H12" t="s">
         <v>35</v>
       </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -870,6 +905,9 @@
       <c r="H13" t="s">
         <v>35</v>
       </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -896,6 +934,9 @@
       <c r="H14" t="s">
         <v>35</v>
       </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -922,6 +963,9 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -948,8 +992,11 @@
       <c r="H16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -974,8 +1021,11 @@
       <c r="H17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1050,11 @@
       <c r="H18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1026,8 +1079,11 @@
       <c r="H19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1052,8 +1108,11 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1137,11 @@
       <c r="H21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1104,8 +1166,11 @@
       <c r="H22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1195,11 @@
       <c r="H23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1156,8 +1224,11 @@
       <c r="H24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1182,8 +1253,11 @@
       <c r="H25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1208,8 +1282,11 @@
       <c r="H26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1311,11 @@
       <c r="H27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1260,8 +1340,11 @@
       <c r="H28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1286,8 +1369,11 @@
       <c r="H29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1312,8 +1398,11 @@
       <c r="H30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1338,8 +1427,11 @@
       <c r="H31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1364,8 +1456,11 @@
       <c r="H32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1388,6 +1483,9 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
         <v>35</v>
       </c>
     </row>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E4130B-DD0C-426E-BF7D-BAAD812E0713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250323C9-26B4-45B4-8C4F-DD5B2CDE0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>SEX</t>
+  </si>
+  <si>
+    <t>2/P</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250323C9-26B4-45B4-8C4F-DD5B2CDE0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE674A74-96F5-4ADF-B925-CFFDB553F48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>P/5</t>
-  </si>
-  <si>
-    <t>SEX</t>
   </si>
   <si>
     <t>2/P</t>
@@ -491,24 +488,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45684</v>
       </c>
@@ -530,7 +527,9 @@
       <c r="I1" s="1">
         <v>45705</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1">
+        <v>45709</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -564,7 +563,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,13 +586,16 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -621,8 +623,11 @@
       <c r="I3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,8 +655,11 @@
       <c r="I4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -679,8 +687,11 @@
       <c r="I5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -708,8 +719,11 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -737,8 +751,11 @@
       <c r="I7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -766,8 +783,11 @@
       <c r="I8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -795,8 +815,11 @@
       <c r="I9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -824,8 +847,11 @@
       <c r="I10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -853,8 +879,11 @@
       <c r="I11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -882,8 +911,11 @@
       <c r="I12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -911,8 +943,11 @@
       <c r="I13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -940,8 +975,11 @@
       <c r="I14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -969,8 +1007,11 @@
       <c r="I15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -996,10 +1037,13 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1027,8 +1071,11 @@
       <c r="I17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1056,8 +1103,11 @@
       <c r="I18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1085,8 +1135,11 @@
       <c r="I19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1114,8 +1167,11 @@
       <c r="I20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1143,8 +1199,11 @@
       <c r="I21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1172,8 +1231,11 @@
       <c r="I22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1263,11 @@
       <c r="I23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1295,11 @@
       <c r="I24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1259,8 +1327,11 @@
       <c r="I25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1288,8 +1359,11 @@
       <c r="I26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1317,8 +1391,11 @@
       <c r="I27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1346,8 +1423,11 @@
       <c r="I28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1375,8 +1455,11 @@
       <c r="I29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1404,8 +1487,11 @@
       <c r="I30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1433,8 +1519,11 @@
       <c r="I31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1462,8 +1551,11 @@
       <c r="I32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1491,9 +1583,12 @@
       <c r="I33" t="s">
         <v>35</v>
       </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
   <conditionalFormatting sqref="C3:CV33">
@@ -1519,159 +1614,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE674A74-96F5-4ADF-B925-CFFDB553F48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A53744-9601-494D-ACB6-4432ECF8BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -488,7 +488,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,9 @@
       <c r="J1" s="1">
         <v>45709</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1">
+        <v>55</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -626,6 +628,9 @@
       <c r="J3" t="s">
         <v>35</v>
       </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -658,6 +663,9 @@
       <c r="J4" t="s">
         <v>35</v>
       </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -690,6 +698,9 @@
       <c r="J5" t="s">
         <v>35</v>
       </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -722,6 +733,9 @@
       <c r="J6" t="s">
         <v>34</v>
       </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -754,6 +768,9 @@
       <c r="J7" t="s">
         <v>35</v>
       </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -786,6 +803,9 @@
       <c r="J8" t="s">
         <v>35</v>
       </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -818,6 +838,9 @@
       <c r="J9" t="s">
         <v>35</v>
       </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -850,6 +873,9 @@
       <c r="J10" t="s">
         <v>34</v>
       </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -882,6 +908,9 @@
       <c r="J11" t="s">
         <v>35</v>
       </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -914,6 +943,9 @@
       <c r="J12" t="s">
         <v>35</v>
       </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -946,6 +978,9 @@
       <c r="J13" t="s">
         <v>35</v>
       </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -978,6 +1013,9 @@
       <c r="J14" t="s">
         <v>35</v>
       </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1010,6 +1048,9 @@
       <c r="J15" t="s">
         <v>35</v>
       </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1042,8 +1083,11 @@
       <c r="J16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1074,8 +1118,11 @@
       <c r="J17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1106,8 +1153,11 @@
       <c r="J18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1138,8 +1188,11 @@
       <c r="J19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1223,11 @@
       <c r="J20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1202,8 +1258,11 @@
       <c r="J21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1234,8 +1293,11 @@
       <c r="J22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1266,8 +1328,11 @@
       <c r="J23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1298,8 +1363,11 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1330,8 +1398,11 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1362,8 +1433,11 @@
       <c r="J26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1394,8 +1468,11 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1426,8 +1503,11 @@
       <c r="J28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1458,8 +1538,11 @@
       <c r="J29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1490,8 +1573,11 @@
       <c r="J30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1522,8 +1608,11 @@
       <c r="J31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1554,8 +1643,11 @@
       <c r="J32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1584,6 +1676,9 @@
         <v>35</v>
       </c>
       <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" t="s">
         <v>35</v>
       </c>
     </row>

--- a/ds/3des/chamada.xlsx
+++ b/ds/3des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A53744-9601-494D-ACB6-4432ECF8BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E133D-E05E-49A7-96C3-712E5AA32EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -488,7 +488,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +596,9 @@
       <c r="J2" t="s">
         <v>36</v>
       </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -734,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
